--- a/Hrois+Hovas+单证/02_项目问题处理/运维Issue Log.xlsx
+++ b/Hrois+Hovas+单证/02_项目问题处理/运维Issue Log.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caven/Documents/项目文档、学习文件、个人文件/项目文档/海外/horis资料库/overseas-projects/Hrois+Hovas+单证/02_项目问题处理/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD50628-7688-9442-AEEE-37B9FCCC32BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISSUE" sheetId="1" r:id="rId1"/>
@@ -17,17 +23,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">如果没有消息号或者需求号，填写“/”
@@ -35,12 +42,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>closed
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>序号</t>
   </si>
@@ -392,6 +400,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>由于分备货单重做，或者分单失败后重新分单
@@ -402,6 +411,7 @@
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>需修改</t>
@@ -553,15 +563,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,12 +580,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -587,172 +595,37 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,198 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -975,254 +662,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1271,69 +716,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1349,13 +750,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1656,37 +1063,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.3365384615385" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.33203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6634615384615" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.3365384615385" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.8365384615385" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.3365384615385" style="4" customWidth="1"/>
-    <col min="6" max="6" width="86.1634615384615" style="5" customWidth="1"/>
-    <col min="7" max="7" width="67.8365384615385" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="86.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="67.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="55.5" style="6" customWidth="1"/>
     <col min="9" max="9" width="34" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.1634615384615" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="62.3365384615385" style="9"/>
+    <col min="12" max="16384" width="62.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="38.25" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:8">
+    <row r="2" spans="1:10" ht="44">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1744,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="90" spans="1:8">
+    <row r="3" spans="1:10" ht="110">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1770,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="36" spans="1:8">
+    <row r="4" spans="1:10" ht="44">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1796,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="108" spans="1:8">
+    <row r="5" spans="1:10" ht="110">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1822,7 +1228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:6">
+    <row r="6" spans="1:10" ht="44">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1842,7 +1248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="36" spans="1:8">
+    <row r="7" spans="1:10" ht="44">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1868,7 +1274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="36" spans="1:8">
+    <row r="8" spans="1:10" ht="44">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1894,7 +1300,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="409" customHeight="1" spans="1:8">
+    <row r="9" spans="1:10" ht="409" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1920,7 +1326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" ht="36" spans="1:8">
+    <row r="10" spans="1:10" ht="44">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1946,7 +1352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" ht="36" spans="1:7">
+    <row r="11" spans="1:10" ht="44">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1969,7 +1375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="54" spans="1:8">
+    <row r="12" spans="1:10" ht="44">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1995,7 +1401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" ht="54" spans="1:8">
+    <row r="13" spans="1:10" ht="66">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2021,7 +1427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" ht="22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2047,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" ht="144" spans="1:8">
+    <row r="15" spans="1:10" ht="154">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2073,7 +1479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" ht="172" customHeight="1" spans="1:8">
+    <row r="16" spans="1:10" ht="172" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2099,7 +1505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" ht="180" spans="1:8">
+    <row r="17" spans="1:8" ht="220">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2125,7 +1531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" ht="90" spans="1:8">
+    <row r="18" spans="1:8" ht="110">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2151,7 +1557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" ht="36" spans="1:8">
+    <row r="19" spans="1:8" ht="44">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2177,7 +1583,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" ht="36" spans="1:8">
+    <row r="20" spans="1:8" ht="44">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2203,7 +1609,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" ht="90" spans="1:8">
+    <row r="21" spans="1:8" ht="110">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2229,7 +1635,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" ht="90" spans="1:8">
+    <row r="22" spans="1:8" ht="110">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2252,7 +1658,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" ht="36" spans="1:6">
+    <row r="23" spans="1:8" ht="44">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2272,54 +1678,54 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J94">
     <sortCondition ref="A2"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>